--- a/bin/sheets/main_db/active_players/odi/ActivePlayers_IRE.xlsx
+++ b/bin/sheets/main_db/active_players/odi/ActivePlayers_IRE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,104 +635,117 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>K J O'Brien</t>
+          <t>P J Moor</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3391</v>
+        <v>4359</v>
       </c>
       <c r="C16" t="n">
-        <v>153</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>W T S Porterfield</t>
+          <t>K J O'Brien</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3418</v>
+        <v>3391</v>
       </c>
       <c r="C17" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>N A Rock</t>
+          <t>W T S Porterfield</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6148</v>
+        <v>3418</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Simi Singh</t>
+          <t>N A Rock</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4687</v>
+        <v>6148</v>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>P R Stirling</t>
+          <t>Simi Singh</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3586</v>
+        <v>4687</v>
       </c>
       <c r="C20" t="n">
-        <v>145</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>H T Tector</t>
+          <t>P R Stirling</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5476</v>
+        <v>3586</v>
       </c>
       <c r="C21" t="n">
-        <v>29</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>L J Tucker</t>
+          <t>H T Tector</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4586</v>
+        <v>5476</v>
       </c>
       <c r="C22" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>L J Tucker</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4586</v>
+      </c>
+      <c r="C23" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>C A Young</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B24" t="n">
         <v>4328</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C24" t="n">
         <v>36</v>
       </c>
     </row>

--- a/bin/sheets/main_db/active_players/odi/ActivePlayers_IRE.xlsx
+++ b/bin/sheets/main_db/active_players/odi/ActivePlayers_IRE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Active Players" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Active Players" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
